--- a/demo.xlsx
+++ b/demo.xlsx
@@ -62,8 +62,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -130,8 +131,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -154,15 +159,15 @@
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="A2:L3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A2:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.94"/>
@@ -182,10 +187,10 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -20,18 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal Price</t>
   </si>
   <si>
     <t xml:space="preserve">Sale Price</t>
@@ -157,40 +148,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A2:L41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
@@ -205,14 +195,34 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>11</v>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1001000</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -151,7 +151,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -198,7 +198,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1001000</v>
+        <v>1200586</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>5</v>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -148,10 +148,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -210,7 +210,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>4</v>
@@ -219,10 +219,39 @@
         <v>5</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2302224</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">SKU</t>
   </si>
   <si>
-    <t xml:space="preserve">Sale Price</t>
+    <t xml:space="preserve">price</t>
   </si>
   <si>
     <t xml:space="preserve">Small Tag Quantity</t>
@@ -47,15 +47,19 @@
   </si>
   <si>
     <t xml:space="preserve">Parts Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273-1126</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -122,12 +126,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -150,31 +158,32 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -197,26 +206,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1200586</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
@@ -227,25 +236,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2302224</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>2700217</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">SKU</t>
   </si>
   <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
     <t xml:space="preserve">Small Tag Quantity</t>
   </si>
   <si>
@@ -47,19 +44,15 @@
   </si>
   <si>
     <t xml:space="preserve">Parts Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273-1126</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -126,16 +119,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -156,7 +145,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -165,25 +154,24 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -200,67 +188,6 @@
       </c>
       <c r="H1" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2700217</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -124,7 +124,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -154,7 +154,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.94"/>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -148,7 +148,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="17:17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -148,7 +148,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="17:17"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -145,10 +145,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -190,6 +190,32 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2302218</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
